--- a/basic/Temperature.xlsx
+++ b/basic/Temperature.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/peye9704_colorado_edu/Documents/2024/AIbyHand/spreadsheets/github/ai-by-hand-excel/basic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eef11b9b1a4383f6/Documents/Dev/Projects/ai_by_hand_excel/ai-by-hand-excel/basic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{625802E9-3F28-D84B-BD67-17B764D9ED2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{625802E9-3F28-D84B-BD67-17B764D9ED2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6231D54F-72BB-40FF-BB52-F8DF6C38B1BF}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="740" windowWidth="17320" windowHeight="18380" xr2:uid="{E1AAD3A7-3575-194F-845B-C88420E1508E}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="17895" windowHeight="8835" xr2:uid="{E1AAD3A7-3575-194F-845B-C88420E1508E}"/>
   </bookViews>
   <sheets>
     <sheet name="small" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_dk">[2]small!$E$7</definedName>
     <definedName name="width">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -423,7 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -436,10 +436,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -936,89 +933,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707DB337-9893-824E-AE25-C7147C9723A1}">
   <dimension ref="A1:AP19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1875" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.6875" customWidth="1"/>
+    <col min="7" max="7" width="3.8125" customWidth="1"/>
+    <col min="8" max="8" width="7.8125" customWidth="1"/>
+    <col min="9" max="9" width="3.8125" customWidth="1"/>
+    <col min="10" max="10" width="5.6875" customWidth="1"/>
+    <col min="12" max="12" width="7.1875" customWidth="1"/>
+    <col min="13" max="13" width="5.8125" customWidth="1"/>
+    <col min="19" max="19" width="8.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-    </row>
-    <row r="3" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+    </row>
+    <row r="3" spans="1:42" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
@@ -1030,21 +1029,21 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="16" t="s">
+    <row r="4" spans="1:42" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>2</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="15">
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B5" s="9" t="s">
         <v>41</v>
       </c>
@@ -1072,7 +1071,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1083,8 +1082,8 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1111,7 +1110,7 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B7" s="4"/>
       <c r="N7" s="1"/>
       <c r="O7" s="3" t="s">
@@ -1127,7 +1126,7 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1156,7 @@
       <c r="O8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1166,232 +1165,232 @@
       <c r="R8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>2.5</v>
       </c>
-      <c r="E9" s="11" cm="1">
+      <c r="E9" s="10" cm="1">
         <f t="array" ref="E9:E13">_xlfn.LET(_xlpm.T, E4, _xlpm.Z, C9:C13, _xlpm.Z/_xlpm.T)</f>
         <v>1.25</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="11" cm="1">
+      <c r="H9" s="10" cm="1">
         <f t="array" ref="H9:H13">EXP(_xlfn.ANCHORARRAY(E9))</f>
         <v>3.4903429574618414</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11" cm="1">
+      <c r="I9" s="7"/>
+      <c r="J9" s="10" cm="1">
         <f t="array" ref="J9:J13">ROUND(_xlfn.ANCHORARRAY(H9)/SUM(_xlfn.ANCHORARRAY(H9)),2)</f>
         <v>0.13</v>
       </c>
-      <c r="L9" s="15" t="str" cm="1">
+      <c r="L9" s="12" t="str" cm="1">
         <f t="array" ref="L9:M13">_xlfn._xlws.SORT(_xlfn.HSTACK(B9:B13,_xlfn.ANCHORARRAY(J9)),2,-1)</f>
         <v>why</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>0.51</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>0</v>
       </c>
       <c r="P9" s="7" cm="1">
         <f t="array" ref="P9:P13">_xlfn.LET(_xlpm.r,P4,_xlpm.as,O9:O13, _xlpm.bs, Q9:Q13, _xlfn.MAP(_xlpm.as,_xlpm.bs,_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(AND(_xlpm.r&gt;=_xlpm.a,_xlpm.r&lt;_xlpm.b),_xlpm.r,""))))</f>
         <v>0.45</v>
       </c>
-      <c r="Q9" s="11" cm="1">
+      <c r="Q9" s="10" cm="1">
         <f t="array" ref="Q9:Q12">O10:O13</f>
         <v>0.51</v>
       </c>
-      <c r="S9" s="25" t="str" cm="1">
+      <c r="S9" s="22" t="str" cm="1">
         <f t="array" ref="S9:S13">_xlfn.MAP(L9:L13,_xlfn.ANCHORARRAY(P9),_xlfn.LAMBDA(_xlpm.v,_xlpm.r,IF(ISNUMBER(_xlpm.r),_xlpm.v,"")))</f>
         <v>why</v>
       </c>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0.5</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>1.6487212707001282</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="11">
+      <c r="I10" s="7"/>
+      <c r="J10" s="10">
         <v>0.06</v>
       </c>
-      <c r="L10" s="15" t="str">
+      <c r="L10" s="12" t="str">
         <v>what</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>0.18</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <f t="shared" ref="O10:O13" si="0">O9+M9</f>
         <v>0.51</v>
       </c>
       <c r="P10" s="8" t="str">
         <v/>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>0.69</v>
       </c>
       <c r="R10" s="5"/>
-      <c r="S10" s="25" t="str">
+      <c r="S10" s="22" t="str">
         <v/>
       </c>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>5.2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>2.6</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>13.463738035001692</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="11">
+      <c r="I11" s="7"/>
+      <c r="J11" s="10">
         <v>0.51</v>
       </c>
-      <c r="L11" s="15" t="str">
+      <c r="L11" s="12" t="str">
         <v>who</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>0.13</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
       <c r="P11" s="8" t="str">
         <v/>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>0.82</v>
       </c>
-      <c r="S11" s="25" t="str">
+      <c r="S11" s="22" t="str">
         <v/>
       </c>
       <c r="AH11" s="5"/>
       <c r="AI11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B12" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>3.1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>1.55</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>4.7114701825907419</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11">
+      <c r="I12" s="7"/>
+      <c r="J12" s="10">
         <v>0.18</v>
       </c>
-      <c r="L12" s="15" t="str">
+      <c r="L12" s="12" t="str">
         <v>how</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>0.11</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
       <c r="P12" s="8" t="str">
         <v/>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>0.92999999999999994</v>
       </c>
-      <c r="S12" s="25" t="str">
+      <c r="S12" s="22" t="str">
         <v/>
       </c>
       <c r="AH12" s="5"/>
       <c r="AI12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>2.15</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>1.075</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>2.9299929005337013</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="11">
+      <c r="I13" s="7"/>
+      <c r="J13" s="10">
         <v>0.11</v>
       </c>
-      <c r="L13" s="15" t="str">
+      <c r="L13" s="12" t="str">
         <v>where</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>0.06</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <f t="shared" si="0"/>
         <v>0.92999999999999994</v>
       </c>
       <c r="P13" s="8" t="str">
         <v/>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>1</v>
       </c>
-      <c r="S13" s="25" t="str">
+      <c r="S13" s="22" t="str">
         <v/>
       </c>
       <c r="AH13" s="5"/>
       <c r="AI13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1413,14 +1412,14 @@
       <c r="AI14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1441,7 +1440,7 @@
       <c r="AI15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="1"/>
@@ -1466,7 +1465,7 @@
       <c r="AI16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1485,7 +1484,7 @@
       <c r="Q17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1504,7 +1503,7 @@
       <c r="Q18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1524,16 +1523,6 @@
       <c r="AP19" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="R10 P9">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$BL12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:S13">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
-      <formula>LEN(TRIM(S9))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C9:C13">
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -1570,6 +1559,16 @@
           <x14:id>{320CE37D-D3AB-5B4A-BF73-6617E9FB0C55}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9 R10">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$BL12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:S13">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
+      <formula>LEN(TRIM(S9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AH13">
@@ -1615,87 +1614,87 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1875" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
-    <col min="9" max="9" width="3.83203125" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.6875" customWidth="1"/>
+    <col min="7" max="7" width="3.8125" customWidth="1"/>
+    <col min="8" max="8" width="7.8125" customWidth="1"/>
+    <col min="9" max="9" width="3.8125" customWidth="1"/>
+    <col min="10" max="10" width="5.6875" customWidth="1"/>
+    <col min="12" max="12" width="7.1875" customWidth="1"/>
+    <col min="13" max="13" width="5.8125" customWidth="1"/>
+    <col min="19" max="19" width="8.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-    </row>
-    <row r="3" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+    </row>
+    <row r="3" spans="1:42" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="9" t="s">
         <v>42</v>
       </c>
@@ -1707,21 +1706,21 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:42" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="16" t="s">
+    <row r="4" spans="1:42" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>1.5</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="15">
         <v>0.45</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B5" s="9" t="s">
         <v>41</v>
       </c>
@@ -1749,7 +1748,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1760,8 +1759,8 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
         <v>3</v>
       </c>
@@ -1788,7 +1787,7 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B7" s="4"/>
       <c r="N7" s="1"/>
       <c r="O7" s="3" t="s">
@@ -1804,7 +1803,7 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1833,7 @@
       <c r="O8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="16" t="s">
+      <c r="P8" s="13" t="s">
         <v>43</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1843,1049 +1842,1049 @@
       <c r="R8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>-4.01</v>
       </c>
-      <c r="E9" s="11" cm="1">
+      <c r="E9" s="10" cm="1">
         <f t="array" ref="E9:E32">_xlfn.LET(_xlpm.T, E4, _xlpm.Z, C9:C32, _xlpm.Z/_xlpm.T)</f>
         <v>-2.6733333333333333</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="11" cm="1">
+      <c r="H9" s="10" cm="1">
         <f t="array" ref="H9:H32">EXP(_xlfn.ANCHORARRAY(E9))</f>
         <v>6.9021768865773006E-2</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="11" cm="1">
+      <c r="I9" s="7"/>
+      <c r="J9" s="10" cm="1">
         <f t="array" ref="J9:J32">ROUND(_xlfn.ANCHORARRAY(H9)/SUM(_xlfn.ANCHORARRAY(H9)),2)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="15" t="str" cm="1">
+      <c r="L9" s="12" t="str" cm="1">
         <f t="array" ref="L9:M32">_xlfn._xlws.SORT(_xlfn.HSTACK(B9:B32,_xlfn.ANCHORARRAY(J9)),2,-1)</f>
         <v>smile</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>0.3</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>0</v>
       </c>
       <c r="P9" s="7" t="str" cm="1">
         <f t="array" ref="P9:P32">_xlfn.LET(_xlpm.r,P4,_xlpm.as,O9:O32, _xlpm.bs, Q9:Q32, _xlfn.MAP(_xlpm.as,_xlpm.bs,_xlfn.LAMBDA(_xlpm.a,_xlpm.b,IF(AND(_xlpm.r&gt;=_xlpm.a,_xlpm.r&lt;_xlpm.b),_xlpm.r,""))))</f>
         <v/>
       </c>
-      <c r="Q9" s="11" cm="1">
+      <c r="Q9" s="10" cm="1">
         <f t="array" ref="Q9:Q31">O10:O32</f>
         <v>0.3</v>
       </c>
-      <c r="S9" s="24" t="str" cm="1">
+      <c r="S9" s="21" t="str" cm="1">
         <f t="array" ref="S9:S32">_xlfn.MAP(L9:L32,_xlfn.ANCHORARRAY(P9),_xlfn.LAMBDA(_xlpm.v,_xlpm.r,IF(ISNUMBER(_xlpm.r),_xlpm.v,"")))</f>
         <v/>
       </c>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>4.8034936347787482</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>3.202329089852499</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>24.58973525624911</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="11">
+      <c r="I10" s="7"/>
+      <c r="J10" s="10">
         <v>0.05</v>
       </c>
-      <c r="L10" s="15" t="str">
+      <c r="L10" s="12" t="str">
         <v>brings</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>0.25</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <f t="shared" ref="O10:O32" si="0">O9+M9</f>
         <v>0.3</v>
       </c>
       <c r="P10" s="8">
         <v>0.45</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>0.55000000000000004</v>
       </c>
       <c r="R10" s="5"/>
-      <c r="S10" s="24" t="str">
+      <c r="S10" s="21" t="str">
         <v>brings</v>
       </c>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>2.7282305693485625</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>1.8188203795657083</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>6.1645822919345479</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="11">
+      <c r="I11" s="7"/>
+      <c r="J11" s="10">
         <v>0.01</v>
       </c>
-      <c r="L11" s="15" t="str">
+      <c r="L11" s="12" t="str">
         <v>apples</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>0.15</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="P11" s="8" t="str">
         <v/>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>0.70000000000000007</v>
       </c>
-      <c r="S11" s="24" t="str">
+      <c r="S11" s="21" t="str">
         <v/>
       </c>
       <c r="AH11" s="5"/>
       <c r="AI11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>6.4929335400954553</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>4.3286223600636369</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>75.839734721007417</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11">
+      <c r="I12" s="7"/>
+      <c r="J12" s="10">
         <v>0.15</v>
       </c>
-      <c r="L12" s="15" t="str">
+      <c r="L12" s="12" t="str">
         <v>light</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="11">
+      <c r="O12" s="10">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="P12" s="8" t="str">
         <v/>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>0.77</v>
       </c>
-      <c r="S12" s="24" t="str">
+      <c r="S12" s="21" t="str">
         <v/>
       </c>
       <c r="AH12" s="5"/>
       <c r="AI12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>7.291994083054762</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>4.861329388703175</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>129.19583948521398</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="11">
+      <c r="I13" s="7"/>
+      <c r="J13" s="10">
         <v>0.25</v>
       </c>
-      <c r="L13" s="15" t="str">
+      <c r="L13" s="12" t="str">
         <v>an</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>0.05</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <f t="shared" si="0"/>
         <v>0.77</v>
       </c>
       <c r="P13" s="8" t="str">
         <v/>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>0.82000000000000006</v>
       </c>
-      <c r="S13" s="24" t="str">
+      <c r="S13" s="21" t="str">
         <v/>
       </c>
       <c r="AH13" s="5"/>
       <c r="AI13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>2.2874547289230698</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>1.5249698192820464</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>4.5950048866674482</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11">
+      <c r="I14" s="7"/>
+      <c r="J14" s="10">
         <v>0.01</v>
       </c>
-      <c r="L14" s="15" t="str">
+      <c r="L14" s="12" t="str">
         <v>the</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <v>0.05</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="11">
+      <c r="O14" s="10">
         <f t="shared" si="0"/>
         <v>0.82000000000000006</v>
       </c>
       <c r="P14" s="8" t="str">
         <v/>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>0.87000000000000011</v>
       </c>
-      <c r="S14" s="24" t="str">
+      <c r="S14" s="21" t="str">
         <v/>
       </c>
       <c r="AH14" s="5"/>
       <c r="AI14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>-1.3768316507078842</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>-0.91788776713858944</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>0.39936169572711028</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="11">
+      <c r="I15" s="7"/>
+      <c r="J15" s="10">
         <v>0</v>
       </c>
-      <c r="L15" s="15" t="str">
+      <c r="L15" s="12" t="str">
         <v>eat</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>0.03</v>
       </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <f t="shared" si="0"/>
         <v>0.87000000000000011</v>
       </c>
       <c r="P15" s="8" t="str">
         <v/>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>0.90000000000000013</v>
       </c>
-      <c r="S15" s="24" t="str">
+      <c r="S15" s="21" t="str">
         <v/>
       </c>
       <c r="AH15" s="5"/>
       <c r="AI15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.5">
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>-5.2649809400021059</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>-3.5099872933347371</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>2.9897294329424035E-2</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="11">
+      <c r="I16" s="7"/>
+      <c r="J16" s="10">
         <v>0</v>
       </c>
-      <c r="L16" s="15" t="str">
+      <c r="L16" s="12" t="str">
         <v>play</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>0.03</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="11">
+      <c r="O16" s="10">
         <f t="shared" si="0"/>
         <v>0.90000000000000013</v>
       </c>
       <c r="P16" s="8" t="str">
         <v/>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="10">
         <v>0.93000000000000016</v>
       </c>
-      <c r="S16" s="24" t="str">
+      <c r="S16" s="21" t="str">
         <v/>
       </c>
       <c r="AH16" s="5"/>
       <c r="AI16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>-5.5126040997560173</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>-3.6750693998373447</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>2.534764633914911E-2</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="11">
+      <c r="I17" s="7"/>
+      <c r="J17" s="10">
         <v>0</v>
       </c>
-      <c r="L17" s="15" t="str">
+      <c r="L17" s="12" t="str">
         <v>to</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="10">
         <v>0.02</v>
       </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="11">
+      <c r="O17" s="10">
         <f t="shared" si="0"/>
         <v>0.93000000000000016</v>
       </c>
       <c r="P17" s="8" t="str">
         <v/>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="10">
         <v>0.95000000000000018</v>
       </c>
-      <c r="S17" s="24" t="str">
+      <c r="S17" s="21" t="str">
         <v/>
       </c>
       <c r="AH17" s="5"/>
       <c r="AI17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>4.0248683722003449</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>2.6832455814668967</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>14.632507305769947</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="11">
+      <c r="I18" s="7"/>
+      <c r="J18" s="10">
         <v>0.03</v>
       </c>
-      <c r="L18" s="15" t="str">
+      <c r="L18" s="12" t="str">
         <v>and</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="10">
         <v>0.01</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="11">
+      <c r="O18" s="10">
         <f t="shared" si="0"/>
         <v>0.95000000000000018</v>
       </c>
       <c r="P18" s="8" t="str">
         <v/>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="10">
         <v>0.96000000000000019</v>
       </c>
-      <c r="S18" s="24" t="str">
+      <c r="S18" s="21" t="str">
         <v/>
       </c>
       <c r="AH18" s="5"/>
       <c r="AI18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>2.8526503908261462</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>1.9017669272174309</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>6.6977183740794359</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="11">
+      <c r="I19" s="7"/>
+      <c r="J19" s="10">
         <v>0.01</v>
       </c>
-      <c r="L19" s="15" t="str">
+      <c r="L19" s="12" t="str">
         <v>by</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
         <v>0.01</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="11">
+      <c r="O19" s="10">
         <f t="shared" si="0"/>
         <v>0.96000000000000019</v>
       </c>
       <c r="P19" s="8" t="str">
         <v/>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="10">
         <v>0.9700000000000002</v>
       </c>
-      <c r="S19" s="24" t="str">
+      <c r="S19" s="21" t="str">
         <v/>
       </c>
       <c r="AH19" s="5"/>
       <c r="AI19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>-1.3158253428192879E-2</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>-8.7721689521285864E-3</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>0.99126619426377549</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="11">
+      <c r="I20" s="7"/>
+      <c r="J20" s="10">
         <v>0</v>
       </c>
-      <c r="L20" s="15" t="str">
+      <c r="L20" s="12" t="str">
         <v>fill</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <v>0.01</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="11">
+      <c r="O20" s="10">
         <f t="shared" si="0"/>
         <v>0.9700000000000002</v>
       </c>
       <c r="P20" s="8" t="str">
         <v/>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S20" s="24" t="str">
+      <c r="S20" s="21" t="str">
         <v/>
       </c>
       <c r="AH20" s="5"/>
       <c r="AI20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>1.1340947448188796</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>0.75606316321258638</v>
       </c>
-      <c r="F21" s="13"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>2.1298747245205374</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="11">
+      <c r="I21" s="7"/>
+      <c r="J21" s="10">
         <v>0</v>
       </c>
-      <c r="L21" s="15" t="str">
+      <c r="L21" s="12" t="str">
         <v>a</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="10">
         <v>0</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="11">
+      <c r="O21" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P21" s="8" t="str">
         <v/>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S21" s="24" t="str">
+      <c r="S21" s="21" t="str">
         <v/>
       </c>
       <c r="AH21" s="5"/>
       <c r="AI21" s="1"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>0.74040775474377085</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>0.49360516982918057</v>
       </c>
-      <c r="F22" s="13"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>1.6382116177129793</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="11">
+      <c r="I22" s="7"/>
+      <c r="J22" s="10">
         <v>0</v>
       </c>
-      <c r="L22" s="15" t="str">
+      <c r="L22" s="12" t="str">
         <v>cat</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>0</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="11">
+      <c r="O22" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P22" s="8" t="str">
         <v/>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S22" s="24" t="str">
+      <c r="S22" s="21" t="str">
         <v/>
       </c>
       <c r="AH22" s="5"/>
       <c r="AI22" s="1"/>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+    <row r="23" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>1.3432208992119925</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>0.89548059947466163</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>2.4485122604400695</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="11">
+      <c r="I23" s="7"/>
+      <c r="J23" s="10">
         <v>0</v>
       </c>
-      <c r="L23" s="15" t="str">
+      <c r="L23" s="12" t="str">
         <v>day</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="10">
         <v>0</v>
       </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="11">
+      <c r="O23" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P23" s="8" t="str">
         <v/>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S23" s="24" t="str">
+      <c r="S23" s="21" t="str">
         <v/>
       </c>
       <c r="AH23" s="5"/>
       <c r="AI23" s="1"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>5.3026710514281579</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>3.5351140342854386</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>34.298925744717437</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="11">
+      <c r="I24" s="7"/>
+      <c r="J24" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L24" s="15" t="str">
+      <c r="L24" s="12" t="str">
         <v>dog</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M24" s="10">
         <v>0</v>
       </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="11">
+      <c r="O24" s="10">
         <f>O23+M23</f>
         <v>0.9800000000000002</v>
       </c>
       <c r="P24" s="8" t="str">
         <v/>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S24" s="24" t="str">
+      <c r="S24" s="21" t="str">
         <v/>
       </c>
       <c r="AH24" s="5"/>
       <c r="AI24" s="1"/>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>-3.0759076192606845</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>-2.0506050795071231</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>0.12865703229732867</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="11">
+      <c r="I25" s="7"/>
+      <c r="J25" s="10">
         <v>0</v>
       </c>
-      <c r="L25" s="15" t="str">
+      <c r="L25" s="12" t="str">
         <v>friend</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>0</v>
       </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="11">
+      <c r="O25" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P25" s="8" t="str">
         <v/>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S25" s="24" t="str">
+      <c r="S25" s="21" t="str">
         <v/>
       </c>
       <c r="AH25" s="5"/>
       <c r="AI25" s="1"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+    <row r="26" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>4.9506492510453803E-2</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>3.3004328340302536E-2</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>1.0335550128094408</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="11">
+      <c r="I26" s="7"/>
+      <c r="J26" s="10">
         <v>0</v>
       </c>
-      <c r="L26" s="15" t="str">
+      <c r="L26" s="12" t="str">
         <v>happy</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="10">
         <v>0</v>
       </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="11">
+      <c r="O26" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P26" s="8" t="str">
         <v/>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S26" s="24" t="str">
+      <c r="S26" s="21" t="str">
         <v/>
       </c>
       <c r="AH26" s="5"/>
       <c r="AI26" s="1"/>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
+    <row r="27" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="11">
         <v>4.146488277526732</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>2.7643255183511548</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="11">
+      <c r="H27" s="10">
         <v>15.868333480617013</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="11">
+      <c r="I27" s="7"/>
+      <c r="J27" s="10">
         <v>0.03</v>
       </c>
-      <c r="L27" s="15" t="str">
+      <c r="L27" s="12" t="str">
         <v>house</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="10">
         <v>0</v>
       </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="11">
+      <c r="O27" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P27" s="8" t="str">
         <v/>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S27" s="24" t="str">
+      <c r="S27" s="21" t="str">
         <v/>
       </c>
       <c r="AH27" s="5"/>
       <c r="AI27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+    <row r="28" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="11">
         <v>1.1429432136885929</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>0.76196214245906191</v>
       </c>
-      <c r="F28" s="13"/>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>2.142475941936723</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="11">
+      <c r="I28" s="7"/>
+      <c r="J28" s="10">
         <v>0</v>
       </c>
-      <c r="L28" s="15" t="str">
+      <c r="L28" s="12" t="str">
         <v>laughter</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <v>0</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="11">
+      <c r="O28" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P28" s="8" t="str">
         <v/>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S28" s="24" t="str">
+      <c r="S28" s="21" t="str">
         <v/>
       </c>
       <c r="AH28" s="5"/>
       <c r="AI28" s="1"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>7.56</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>5.04</v>
       </c>
-      <c r="F29" s="13"/>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="11">
+      <c r="H29" s="10">
         <v>154.47001502589086</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="11">
+      <c r="I29" s="7"/>
+      <c r="J29" s="10">
         <v>0.3</v>
       </c>
-      <c r="L29" s="15" t="str">
+      <c r="L29" s="12" t="str">
         <v>music</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="10">
         <v>0</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="11">
+      <c r="O29" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P29" s="8" t="str">
         <v/>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S29" s="24" t="str">
+      <c r="S29" s="21" t="str">
         <v/>
       </c>
       <c r="AH29" s="5"/>
       <c r="AI29" s="1"/>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B30" s="15" t="s">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <v>5.0214564397467223</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>3.3476376264978147</v>
       </c>
-      <c r="F30" s="13"/>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>28.435479012624587</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="11">
+      <c r="I30" s="7"/>
+      <c r="J30" s="10">
         <v>0.05</v>
       </c>
-      <c r="L30" s="15" t="str">
+      <c r="L30" s="12" t="str">
         <v>night</v>
       </c>
-      <c r="M30" s="11">
+      <c r="M30" s="10">
         <v>0</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="11">
+      <c r="O30" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P30" s="8" t="str">
         <v/>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S30" s="24" t="str">
+      <c r="S30" s="21" t="str">
         <v/>
       </c>
       <c r="AH30" s="5"/>
       <c r="AI30" s="1"/>
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="11">
         <v>3.7262092784952987</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>2.4841395189968658</v>
       </c>
-      <c r="F31" s="13"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>11.990797960541567</v>
       </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="11">
+      <c r="I31" s="7"/>
+      <c r="J31" s="10">
         <v>0.02</v>
       </c>
-      <c r="L31" s="15" t="str">
+      <c r="L31" s="12" t="str">
         <v>quiet</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="10">
         <v>0</v>
       </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="11">
+      <c r="O31" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P31" s="8" t="str">
         <v/>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="10">
         <v>0.9800000000000002</v>
       </c>
-      <c r="S31" s="24" t="str">
+      <c r="S31" s="21" t="str">
         <v/>
       </c>
       <c r="AH31" s="5"/>
       <c r="AI31" s="1"/>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
-      <c r="B32" s="15" t="s">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.5">
+      <c r="B32" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <v>-1.7055175594689171</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>-1.1370117063126115</v>
       </c>
-      <c r="F32" s="13"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>0.32077616437957873</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="11">
+      <c r="I32" s="7"/>
+      <c r="J32" s="10">
         <v>0</v>
       </c>
-      <c r="L32" s="15" t="str">
+      <c r="L32" s="12" t="str">
         <v>water</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="10">
         <v>0</v>
       </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="11">
+      <c r="O32" s="10">
         <f t="shared" si="0"/>
         <v>0.9800000000000002</v>
       </c>
       <c r="P32" s="8" t="str">
         <v/>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="10">
         <v>1</v>
       </c>
-      <c r="S32" s="24" t="str">
+      <c r="S32" s="21" t="str">
         <v/>
       </c>
       <c r="AH32" s="5"/>
       <c r="AI32" s="1"/>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2907,14 +2906,14 @@
       <c r="AI33" s="1"/>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="12"/>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2935,7 +2934,7 @@
       <c r="AI34" s="1"/>
       <c r="AP34" s="1"/>
     </row>
-    <row r="35" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
@@ -2960,7 +2959,7 @@
       <c r="AI35" s="1"/>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2979,7 +2978,7 @@
       <c r="Q36" s="1"/>
       <c r="AP36" s="1"/>
     </row>
-    <row r="37" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2998,7 +2997,7 @@
       <c r="Q37" s="1"/>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:42" x14ac:dyDescent="0.5">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3056,7 +3055,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH11:AH15 R10 P9">
+  <conditionalFormatting sqref="P9 R10 AH11:AH15">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$BL12</formula>
     </cfRule>
@@ -3104,97 +3103,97 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="116.83203125" style="19" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="116.8125" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="10.8125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A3" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A5" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A6" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A7" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A8" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A9" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A10" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-    </row>
-    <row r="12" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A12" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A13" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A15" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A16" s="16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="16" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="16" t="s">
         <v>63</v>
       </c>
     </row>
